--- a/biology/Zoologie/Boophis_englaenderi/Boophis_englaenderi.xlsx
+++ b/biology/Zoologie/Boophis_englaenderi/Boophis_englaenderi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Boophis englaenderi est une espèce d'amphibiens de la famille des Mantellidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boophis englaenderi est une espèce d'amphibiens de la famille des Mantellidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Madagascar. Elle se rencontre aux alentours de 300 m d'altitude dans le massif de Marojejy[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Madagascar. Elle se rencontre aux alentours de 300 m d'altitude dans le massif de Marojejy,.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Boophis englaenderi mesure de 31 à 39 mm pour les mâles, la taille des femelles n'est pas connue. Son dos est vert avec de nombreuses petites taches vert foncé. Son ventre est jaunâtre. La face interne de ses membres est bleu-vert. Sa gorge est vert clair.
 </t>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Hans Engländer[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Hans Engländer.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Glaw &amp; Vences, 1994 : A Fieldguide to the Amphibians and Reptiles of Madagascar - Including Mammals and Freshwater Fish. ed. 2, p. 1-331  (ISBN 3-929449-01-3)</t>
         </is>
